--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/19_Bolu_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/19_Bolu_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C08C1E8-BC9F-4923-94CF-0B7D75A471B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E117412-6CEC-453C-AF1B-CA04C6142FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{C2C866FE-E1C4-42A2-ACF1-50ABB555B4A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{3ABFBABB-2F1F-48F5-9578-462BF11C5A02}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{E17F5BC6-B2A5-4B59-9C4B-6ACD612CF3F0}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3A91081E-8DF3-4EB0-8CB0-2193A735872F}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B680525B-8642-432F-93C6-B03D2448655B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{39B1996B-42A9-4F8C-B010-A0F7F4FCBE80}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D5721426-3E9F-4D80-9D84-6400D4E8D675}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{FC0489FC-A6E8-432B-B717-6D45BA31BDD1}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{193EAC88-3CF7-4335-8BA6-72922548F313}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2C6627C8-E43C-4BB7-B5CE-BAAE553E42F9}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CF218194-537E-40B2-8A62-FFEA38B4EE3D}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{7371FBBB-EC2F-4C53-BC50-EECCCD5E2948}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{BD73C339-5D50-4821-9D3D-47EEDBB3AC55}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C40E16B9-6862-425D-BC8E-F064DD90E892}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{09C05861-BF3B-4712-926D-1B4C3942B59E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{1B571DB8-BFA2-402D-AD97-FBAECE945458}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA2E334-53AF-4038-B45B-460FB72C36AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BC8A5-CFD7-47D5-B59C-769903E2141B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2532,18 +2532,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{22FB11E0-2B32-48CF-9069-C107B2B98A58}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9940F95D-ED89-459E-8CBE-5AC0EAA56C1B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ADB53AAE-F016-4D8F-9341-49F80B497AB5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{08F59337-4749-4B8A-8BAF-7287FD39203C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6680999F-D378-4731-AD38-22AFE2DCBDD1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{98CC94A4-F041-4633-A87F-B6A5282DC4B0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9CA7E23-0FEC-4325-8267-8A29CDA3E5E0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE1BB64E-EEA4-433B-9D46-37C8A1124FCB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{50FA239F-61DC-4323-8AC6-32BC2589FBD8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8DE05103-FB0A-490D-9270-4DABFE4549C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFDBE7CE-2635-4754-ABBF-726265069F86}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FBF82CD9-8CFA-4A55-8A5A-CC576AA0DF18}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1294CA9-4ECD-48E9-B6B4-8BAB57474705}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{826E50AE-F97E-49E1-A59E-F36F7867CB43}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0FBA4A3F-06DA-4FD5-AC3B-B42133A2BC60}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7892C279-0264-41D9-8304-384EC2EA36A8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7A6E941D-BCB9-4F8E-BD26-6F7CF3C2A1B9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{97D27438-C248-439D-9440-3C1ED62A152F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62E7773F-52F3-4BD2-B07B-639843CABE5D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{929408D2-515E-4871-993A-0715FE2A5EE7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{43264071-F9D5-45D7-A1F1-37AFC92CFBD6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7BC0C268-2CA3-4CE9-B183-78F44462AEC8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E20D4BD-4B50-4F1A-A6B7-29D24691263C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E222D521-06AB-45D0-9288-83F8BE20D7EB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2556,7 +2556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BC58F8-0E15-4EBF-A6E9-7A8F681F5C8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7048B41C-1178-48F7-9A08-3FD0D3F013E3}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3754,18 +3754,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0679534A-889B-49B8-AB49-BEEAAB749FE5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D60DD55-4719-4BDC-A99C-ABE9E3BEB5BB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{36477F57-5297-4D25-B0EB-26AB6D0C9D26}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5510515C-A482-4154-9984-00C69BB02864}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B6C26A67-EF00-4E46-8BC7-BBF2682E8B87}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{96EFFAD8-85AD-4AA5-94F2-F0AB22CF6AD0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6FDDBAE3-9803-49FB-952E-7470176DA1F2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{00849582-18A0-4574-9729-572E9ABB2C83}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B27EA326-AE70-47FD-AF9F-645436AA5130}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B9A7572-6455-4EA2-935F-34531360DEFD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38BDDCB7-ABD3-4B42-B263-AD2B3F9A216A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{29656CB5-99BA-4DF9-AB5E-2DD168D9A6B6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EDD2D358-5FB3-4F9A-9AD7-05530A1963B6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCB943B5-6755-42D9-B51B-1EB388437D90}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{25EBFE0B-1310-4E62-BE46-8EE79BEE7E93}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E6029292-74C9-4069-9190-8900B163402A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C2055B3-BA0C-4BFC-BCF2-3DD4DE34F36A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1B7291FD-44CF-47E3-94DA-F3300C98A758}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73B3AF79-2DD9-4BBF-BA1B-32E99E5DE827}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EBBBDBEA-FBA2-495F-89B3-B41A399D5324}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{63C00278-0867-4B23-97FB-E2FFCFCDB2BD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{53B2FA8C-DA37-436F-B158-7ECBF3FE5AE5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C19BF958-DEFF-46B1-BECC-C7850D064B16}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B60D21F-4348-402F-917F-EB83ACF11ADD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3778,7 +3778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FA9636-ECD5-4788-ABAD-1C942DB7431A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D26E281-4E4F-4EA7-9E76-26D79D145107}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -4972,18 +4972,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E161EDDB-20A9-4B57-98C5-D9358D44499D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B93C5B14-04D0-46ED-B34C-3AB8CC23012E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8B1D8B06-38AF-4787-94D3-EBB6FA959192}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3EB518E6-0AB7-4EE3-9F9F-768EF9410EAD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{408810FB-5F68-41ED-B007-16A53A8C2094}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F340C781-3127-4F84-954D-8465417FD601}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2BF72843-F8C5-40AA-8210-B4297FC3430A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4CB8263D-8BC7-42DF-A6E9-6789814E5081}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7253B7D7-E637-4680-B14F-5FBDD0E8B330}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BD00E7D4-9FF6-429A-B4DD-09875E9AB0AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71848FC8-C783-448F-B047-B56F87E63ADA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8E61EA43-7DBF-4961-A3F8-74C749420631}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4693D854-17FC-436B-B3C3-13C1C6776E9F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAB97BA3-DF0D-4259-BE15-270409E9E4C6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E29DA5C8-E0B2-4B67-A308-0598EF02737A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6FDB3B13-6418-4D30-B146-EE5B8A3DE339}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C01CA6C-0EFE-4109-8DF5-4192FA1D5F9F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5F9546FD-0C6E-4639-BCA2-3886470C40A4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B86BDA52-8B09-4CC0-B539-1E93B325E2F4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1ECBAD9F-2113-4D19-A7EA-15A28E2FDF9A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2565A408-C858-45D7-9EC4-62261AABE497}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BA72C1BD-6D5B-4787-8734-6418AE9E3719}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E78C1CEC-56A9-4A3F-9D2D-B67E62FBF8E4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38C3A50D-C83A-45B8-A376-FE8DAA8A0703}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4996,7 +4996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43776BE-0785-4F14-8A6C-DC68F75932E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC89573F-B88B-4661-AD7A-B9419CA25DA0}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6186,18 +6186,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{252CDF3A-ADC3-4389-A227-1AE31CE03197}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{61732F8E-DD32-482E-A788-CF9E77BD56FA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F8BB8B41-F7A8-41C3-966F-4424857CA9C0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2E40A529-1FCB-474F-8230-91EA0BF617ED}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9AFB6EBC-A1F2-4867-9E20-F38B928C3EEA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{63646AA2-F4B3-4F3F-87C4-B47B1C6617F6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5BCBC98-7085-44E2-A82D-19BE3065A537}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8DBF3865-C1C4-4E50-8E51-874CD9067630}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC49437A-9C05-4A37-8A60-E2279351AA18}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E8FF2F98-0453-43E9-80E8-8A121C22F163}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F443C528-CE8C-40A2-B032-85E27C1613E3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE695DDD-0814-4F9F-A35D-45D93F7F4EC5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D8DAF02-A6D8-4BF0-B70E-86E1D61AF29A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D964BA99-F3BD-44AB-AA15-B8D333E565F2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DA853895-CE53-4678-AC13-3B858B87862C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{30AA61A7-678E-4BAB-A6CE-D0278BB31367}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ACCF8B0C-C994-44F3-8D6E-DC810B61147E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3752C344-9DE5-4CCC-BEB1-47D897AB6BD4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A8B8A0D5-D011-497B-B4D7-8FC7D3CB2577}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA5E7A6C-FD1A-4535-AAD6-7C91860C196F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{58BB2273-6226-4B98-B199-9072D2E759B8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{75436479-DCD8-4BB3-8025-2C11AAE33435}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7C6E0728-744A-4311-B34E-515587E50C2F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04342A4F-357E-44C9-ABBD-D147529AFC8C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6210,7 +6210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EDB988-49B6-4769-9846-A1382C560285}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BA205A-E5ED-4816-91E1-3A0CC197391D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7427,18 +7427,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5FB1D8E-F8E7-42D3-AE68-689D15E0095A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E68E0751-8E82-4477-9389-39500024A80F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{88CBEA2F-6135-4BC1-AE4E-DC125E780E06}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A35F10A5-7803-4ED7-806A-BB8F2B606992}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7F8149A6-842E-4A39-B601-F739DD6B7637}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F18C118E-E2DB-4EC2-B6D6-D0D46E2BD28B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{472AF86B-CF21-4CB8-BCF3-F084B00FC166}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0CBCEF0-7642-4777-820E-06AAFB0382B1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD4FCAA9-F89B-40E0-9A58-D8570A1AF3D1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{04A69D24-4852-416B-9C91-21B3ED93522B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{59ACDF32-7785-447B-B9C4-73FB2DA2CFB0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A903980-8BE6-4DFF-8BF2-A9DDDF63D5D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{978B7099-9C26-4976-ACB2-80DBDE467729}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{29E346CD-97AA-418A-A72F-44994CC8654D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{44C825F0-BD81-4700-A00B-0118227100A9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1F186B2D-D6A0-4188-AD06-7F44D8009D56}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DDAA3542-6040-4DE0-9528-D88C02ADAF12}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B35BFF8D-19A5-466D-AD16-F8D925C47529}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{48F1135F-BF5E-464C-A53E-E723E2703C5B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C10F815E-25E9-442A-9651-F1A4AB3C21B6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8A7E22BC-711B-4DD5-B6CE-CD9DDACCFBE4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0CF949D7-E6AA-4127-ADB1-0AAFD3AC513A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F95196F5-E855-4EE3-A280-5CCD6099DABE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A687A726-BDA4-4351-88F1-4455176BFD1E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7451,7 +7451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2439A9FB-6BB3-4F44-9D12-BF2B309658FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F2742C-3AB4-4DF4-981F-C8E80A5828EC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8668,18 +8668,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64172D11-0F66-48FD-8F18-5C4A26F8700B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DA12578B-DAB0-4D81-BE91-428BBA2E67EA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AA732F10-2B3B-4998-8658-5C02A7601B29}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7B57E930-28B7-4437-9C7A-5CCF03A64648}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{028A43F7-4858-402F-A1C4-91B6CBC42F12}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4471DF4D-B603-4FFD-9CB3-020D0322D2F1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1972D394-14A9-40D8-BB13-7E752858F214}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1CD7AFD1-8E07-4450-8DA0-BAE8156145B5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F340FD12-D083-42FB-8783-415F3AE80FF6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73E24598-DA39-48CB-9FAF-F907DE2F1087}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD299235-A8D2-4E33-B352-C06BFD04FA25}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5FB87EC2-1189-494F-A035-FD6B4D54C7E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3BB31F9A-9605-42FA-9075-10D2FC08ACB7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EAFF0754-F4E6-4B88-9DF8-23747C1E006E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3B679DE5-9205-4D7D-A9EB-611F7F17D232}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EA2769E5-09F8-4B90-9765-ACE1EC7CD9F6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2272CB20-174F-4501-8F58-0BABFA785C86}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9286F8B5-7F74-4980-BCA8-ACE9B36C1D32}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D94A0C5-22BE-456F-84E6-C84E38D5C4EB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CBC50C2-7128-4BCB-B997-4117103F8138}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{45CC1C48-F06E-4B67-8D03-A8CC4685C8C3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E088DA08-0A41-43F0-9C24-648E4E3B7AC0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE0606B2-8F2C-4094-A886-1222201708D1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0F60627A-0740-40BC-80B5-82B87FD3F3C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8692,7 +8692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC1AE4D-C882-4AFD-ACD6-4EC014A2F08F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B774BB-3748-4C16-B1DD-B606800D5A6C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9905,18 +9905,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1E08BD7-2211-4638-BF74-41D4B163E789}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{997EDF00-F443-4BA0-B30B-DE19092BBE64}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{032FAB58-B014-4C44-ADF5-9425274566C2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{51412C6D-3706-42F0-AE7C-2A32C747ECC3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{85B12C46-4D9B-435F-B39C-1AE5BF6E82FF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA45C83D-86BA-462B-A507-4521FF66559F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6FBE46A-A654-4324-949C-EF7384E1119C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{967FE6C9-A853-4E1D-985B-C4CB4536B55C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31544537-757A-4D8A-AE5D-3B7B6F79C211}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ED7C436F-8E70-4914-A5EB-3D99FD20B8B8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1ACE689-087A-4D85-AEC8-E4266DD5AAD5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2983AEBD-F0DC-4E42-BF49-16AF12EEDD2C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F8CA11D8-F00B-40ED-A621-22E7BB5B2431}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87420776-4891-4DA6-A96E-A25339130028}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{096122CC-3899-4C5D-A0B3-30DAB80E964A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ABB4384E-9103-457D-8522-4D28BBA1C39A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4EC41C71-94A7-4BD0-9381-F79A87DC799D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F2281698-357D-4DC8-BA46-918AFA5BB557}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A12C17EF-6481-444B-805C-7A186E421534}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C946077-06FC-41D4-9875-16821BEBF6F5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7132714-E245-4F70-AE12-4991999C642E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{42EE48C2-CB27-4D74-AE5D-6C19BB5F9F0D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D77B317-52CE-482D-85B4-2A6762AE7F68}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8B29EA18-658F-427B-8542-1C7647B58A24}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9929,7 +9929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738FECA8-54DC-4665-816D-2A09804B1606}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D07256-F55C-4BFC-8D07-DFE72687E670}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11142,18 +11142,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0FB701CF-4B2F-45EB-8A5D-135A22382BB9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0FCE939-BF28-46CC-A8C9-742FB8B3A07F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DADB6227-F4CF-4F9C-9F6E-C8242E4E7D6C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E53AB992-B6C1-4030-9F22-BF1504C6F9A1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A70628D5-903A-4E1A-9AAC-BD759A5B6D76}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{87396158-1310-4C13-B1C4-4153441A5FC0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3C47544E-44C4-4CE7-9B33-267DBE96EF14}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7456C2FB-5C86-4725-9609-2AD2446A9900}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2C083764-37B4-442C-9A0A-24C70DB68EB6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C6ACD0A3-EFA4-4208-A9FA-8569A00D5D5E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3822E3E9-3FD4-48C5-B60D-713B6233B10F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67F53205-5313-4665-AAAC-DDE8232EA756}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{644518F2-AA78-459D-A7D0-2DAA0BFFDBE3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{35FE6BC9-EC2C-4ECB-BE30-4E35A8BD16EE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E26B0481-DE55-47D2-A46F-E6C3DB035EE7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{90EA6400-6F7D-40D1-B739-616EE9EA183F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{27BEFFAE-AF45-4A3B-9D21-1BFFF162C0E9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3C329D97-FE89-4971-AA6A-ED70B7A40C0E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{955E3D21-1DBF-4B85-81A9-73F06F5CB1D9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA1D2427-AA1A-4778-BD2C-415FE58D1DD4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{634BD210-728A-40A9-AF0F-F0FA5D3157A6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F1A87A72-7994-4E11-91C4-E9987C697C24}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15EB9705-FBAC-4630-B506-E34BE401A010}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C9CC4E6-9903-4734-B864-B6DEDE869101}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11166,7 +11166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDE58B9-9AAC-47D6-A65F-1516B0D33163}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8554D6B7-4533-47B9-9A82-A5B0752F8A90}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12373,18 +12373,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2E40D01-235C-4C89-82BD-7A36FFCACBA2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92C01D9A-D5AD-4107-8B2A-047EF001E17E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{73C5DC29-A42E-4E1D-992B-914E2BCBA54E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1BB7B182-4D5D-4BA8-9EF8-9BFDFA222387}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B0FBB76-8421-4B4C-BC41-4D9CBE45C995}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{488A0E1D-41C7-49B1-B886-F6B2B528D189}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9002B43A-F82E-47AB-8E04-FA4D60EC6CC6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9544D065-90E6-4F36-8B7F-FA3F0B855848}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BBFBF6DC-51A8-4C90-A8B0-3FAF573DE2D3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9B453727-73C2-465A-9C11-FBFE58F88AF3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC76BA2C-1F9F-46BC-9E1B-552F354F6D97}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E6208B04-BB2C-4477-A63D-22F7DF859687}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC7F86C9-3702-431C-87EB-C534998BF709}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{73D975BA-F5BC-4A99-B779-AD88E3FDEA1C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B3744C20-D2FE-4C70-AE6F-CA3F8B70F800}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{272AAFEF-2AD0-4CE7-A29B-181577A507C0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DF703038-D19B-4398-A7EE-E697ED29DEEE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0012D361-056A-4553-B7C1-C585C2D2E1F8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0CA151C0-A651-4111-9C9B-89D60D98B54D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1073CA5C-E3D8-4564-89DE-3267A3B6DD03}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{948DF3EC-06EB-4EEB-97C5-705F37F4B682}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5FD4D6B8-F526-44F4-909C-1630FB28C378}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7BD6AB49-1D78-4F9D-8F6F-27AEC56BD9FA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EE0EE123-7277-42B1-9068-92577E28075E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12397,7 +12397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F735467-C6C0-44A0-A3AD-5FD93B855FF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAE1FDD-6054-4F49-942F-F371BF43A68F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13604,18 +13604,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04A65EEF-9411-4D01-9405-34779210E15C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B564E771-0C23-4275-9022-2E57F1A68A6A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5F9BF680-8B70-4395-910E-5FAD10E577B0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4A8376C7-BA51-4EF9-9AD7-4E26399AED80}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D797EB1-263C-4D53-A184-D434D53D87E1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A5DFE64D-6FB8-4B40-9BF3-CAEB5FD52430}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3124A246-1EAE-43FD-BD00-B6412041AC95}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8DBBF44D-9EC2-43AA-81C1-EA27C5BD23AC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0A822F6F-A8A8-474D-B2F0-1FDD8F11F29F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F31ABDD5-B694-4212-80E0-514022585FE9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{812FFD4D-F164-445F-9E6C-A39FD0D20733}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38AF3374-02CA-417B-8721-72C2DDCA4ADD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4BDFAE94-DF0F-48CC-AFC8-1E10B6341A91}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0C3782CE-453D-49CB-8845-DC2B87D5E838}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{34E77DD2-FE00-497D-BCF0-C7A76D6A6BD3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{405558E6-4DAC-48BD-903C-42F3F8585646}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FF8B8129-4065-4E61-925C-EC82ABC591B0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{103EBB02-9071-4E03-A26E-56FC9E30EE6C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D5C39A5-50BB-4DF4-B98E-8CFA73CB9707}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8D1048C-1DA4-4EFD-BD41-36E627777144}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{943D2FE7-077B-47AC-8288-B6FFDA07ABEF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{64409CAB-5AA9-440E-8017-9ED89E933052}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F12FC0E1-FA44-4127-866C-5B69694B29E2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{05EFD5DB-E3F7-46A9-AB70-8E06348E9993}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13628,7 +13628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C09BE4F-F172-474E-9CE7-5D98756FFD12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02760142-F342-421D-BD97-485382F986AF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14835,18 +14835,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB36AF52-9A93-40A8-BF67-DD66D0DD427F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5B42D7F-AA14-4179-B02A-0414454E7847}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A99A62D6-F7DF-42C7-83D7-E1970AFEA076}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{95A0B15C-284A-4FB8-9828-B315EFC93F35}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{95613576-A354-44BF-81A0-1A5432DF81E1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6C7BAE33-CAA3-4D2D-9F09-931E292E455F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B085AB9B-65C6-44D5-9511-491B383E0031}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D3A5658-E808-44BF-A3D1-A6724EC4105B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F83C0879-A8B6-4CAA-8644-EF1F373173F6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CF5AF3CB-C210-41BF-81CD-C53CB804CE25}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4F6F3FDC-3764-4A88-B576-920D3A023E5B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3C6FC2BB-2819-413C-B57A-AD6F22D3C17F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3437E406-9BCB-4146-8108-99EB07BC4319}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3C75F9C-1D5B-4E5C-A7CF-134BF3B84028}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9C2CF150-71B3-4046-AA9E-284EF3BF59B5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C595F6AF-8996-44B3-A32E-C1054692A39C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C31D4D64-BD0B-4B3C-9641-39DD24623943}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5BB8981A-6022-4F13-B460-AD7000E4BAC2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D40DBA6-D4FE-47DE-B599-D388D72DF78E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CAE4AD3F-6248-41CD-8199-1E8A1656EECF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8BC29EF-754C-4428-8ECD-CBCABDFAB151}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{855A8E2B-FB6A-451C-A35D-28F4972FA7AC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4EC8394C-21B6-44F9-AE63-AC473995C671}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E43D9E60-A21A-469E-8D2F-196EEFC4EA79}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14859,7 +14859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FA7A9E-3512-4D5E-874E-E45FACDFBE0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ED0F8A-6737-41DD-B83B-FF9EC1AFEE7A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16064,18 +16064,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37806E99-1732-4714-ADB0-7A66B103A9BA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A170D6A8-E3C0-4DA3-9788-335F5115D220}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F3CF2471-5312-4901-961B-A2DBDC8DE65D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ABFBAA77-BBEE-4C24-AAAE-F53C57A168CE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{82C8EDBF-2CAA-49BC-BBC5-27D5A0A8590F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6001810F-8ED6-42FD-9BE0-C9C30B41F880}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE0670D0-D38F-42DF-A63B-992158260655}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51E7321B-ACBC-46BF-AF29-9E340EB2947C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3FDE9C41-101A-4F23-83A8-B6B7289F75D9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BE1594DF-9517-4020-81A7-FFD50654C584}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C8AD22D-B9AB-4137-93E5-F80EF11A4433}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{99885DA4-732B-4D3E-8CEB-B77982462EE4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFBCAC95-F996-4CA1-80BE-75791925B39B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B114E2B1-4AF9-4DA6-AC13-8B9F2667B79C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A2931D37-4CFD-4678-8BA3-48EEA3064724}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E9CD873F-159F-40F1-AD4E-BC37B6A42EBD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE7D0498-9839-49D2-914C-3ED8C1CC438B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{59BE7B62-E88B-4EE0-8A43-836D8A79AE14}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBF97766-21E9-4080-8322-FA046932A72B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC486592-FAA3-4935-83E5-A74F43B8A072}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B691B40-9467-43DE-AD4E-086E7DB360AB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{99734EE0-737E-4B02-BE40-3C9274D49E91}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A1C055F-7455-4FFC-BB36-27B39609D0A9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A6B3BD0D-75F6-483C-A03E-DEC214048974}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
